--- a/3_Training_Validation/evaluation/feature_importances.xlsx
+++ b/3_Training_Validation/evaluation/feature_importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,56 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>split10_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>split11_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>split12_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>split13_test_score</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>split14_test_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>split15_test_score</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>split16_test_score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>split17_test_score</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>split18_test_score</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>split19_test_score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>mean</t>
         </is>
       </c>
@@ -497,37 +547,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004583898466080427</v>
+        <v>0.006238807924091816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004428177140653133</v>
+        <v>0.006043294444680214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004611601121723652</v>
+        <v>0.006422128994017839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004686932545155287</v>
+        <v>0.006347383372485638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004373313393443823</v>
+        <v>0.005915524903684855</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004996587987989187</v>
+        <v>0.006217778194695711</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004612355027347803</v>
+        <v>0.00651502376422286</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004716382827609777</v>
+        <v>0.006620420608669519</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004577607847750187</v>
+        <v>0.006386896595358849</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004094055853784084</v>
+        <v>0.0068466542288661</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004568091128021479</v>
+        <v>0.006889497861266136</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.007101627998054028</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.007428034208714962</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.007130926474928856</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.007564935833215714</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.007159931119531393</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.00719076581299305</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.006664142943918705</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.006931598298251629</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.007175512611865997</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.006739544682204723</v>
       </c>
     </row>
     <row r="3">
@@ -537,2957 +617,4757 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003472460433840752</v>
+        <v>0.006044710986316204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003731733188033104</v>
+        <v>0.005366746336221695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004131828434765339</v>
+        <v>0.00627501867711544</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003932099789381027</v>
+        <v>0.006094757467508316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004024544265121222</v>
+        <v>0.006556211970746517</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004137773066759109</v>
+        <v>0.005871788132935762</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003675688290968537</v>
+        <v>0.006349537055939436</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004332443699240685</v>
+        <v>0.005934130400419235</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003519335063174367</v>
+        <v>0.005673021543771029</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003857073606923223</v>
+        <v>0.006577590480446815</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003881497774273157</v>
+        <v>0.00541507126763463</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.007292894646525383</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.007358877453953028</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.007496435660868883</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.007241625804454088</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.006675470154732466</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.006621220614761114</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.007182714994996786</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.006619098130613565</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.006637128069996834</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.006464202888309956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>WT_Pct_Exposed_Residue</t>
+          <t>wt_pct_ss_H</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004370540846139193</v>
+        <v>0.01179797668009996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004329117946326733</v>
+        <v>0.01108466554433107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004043194931000471</v>
+        <v>0.01198541559278965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004067840054631233</v>
+        <v>0.01443656906485558</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004817300941795111</v>
+        <v>0.01218576449900866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004438278265297413</v>
+        <v>0.0130769107490778</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00380092510022223</v>
+        <v>0.01130918320268393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003695362014696002</v>
+        <v>0.01245895028114319</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003904700512066483</v>
+        <v>0.01145781576633453</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004668217618018389</v>
+        <v>0.01209453493356705</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004213547799736261</v>
+        <v>0.01086784619837999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.009856673888862133</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01283666770905256</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01052465289831161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01076751388609409</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.01146590616554022</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01208343543112278</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.01138924155384302</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0122805293649435</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.01104392949491739</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01175021007657051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>wt_pct_ss_H</t>
+          <t>wt_pct_ss_E</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01553486380726099</v>
+        <v>0.01186256855726242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009195641614496708</v>
+        <v>0.01089481171220541</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01239270810037851</v>
+        <v>0.01165259815752506</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01408260501921177</v>
+        <v>0.008942771703004837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01461705006659031</v>
+        <v>0.009972146712243557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01256026513874531</v>
+        <v>0.011687982827425</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01122144982218742</v>
+        <v>0.01093426533043385</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0107133723795414</v>
+        <v>0.01020927634090185</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01325275655835867</v>
+        <v>0.01146658509969711</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009150510653853416</v>
+        <v>0.01014702953398228</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01227212231606245</v>
+        <v>0.01039965357631445</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01046471670269966</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01048514060676098</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01193392276763916</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01164684258401394</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01129851210862398</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.01279956661164761</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01045332197099924</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.01334307435899973</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.01139636430889368</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01109955739229918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>wt_pct_ss_E</t>
+          <t>wt_pct_ss_T</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008957318030297756</v>
+        <v>0.0103290481492877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01312665175646544</v>
+        <v>0.009815296158194542</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009192340075969696</v>
+        <v>0.009180455468595028</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01132485643029213</v>
+        <v>0.01148157846182585</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0107151698321104</v>
+        <v>0.00993388332426548</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009958209469914436</v>
+        <v>0.009708774276077747</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01593631692230701</v>
+        <v>0.008769301697611809</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00895985309034586</v>
+        <v>0.01153727527707815</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01031648460775614</v>
+        <v>0.009678850881755352</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0115561680868268</v>
+        <v>0.009957664646208286</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01100433617830276</v>
+        <v>0.009276929311454296</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01059268973767757</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00927784014493227</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.009790300391614437</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.010719895362854</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.008913307450711727</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.009811141528189182</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00857848022133112</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.009495553560554981</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.00972380768507719</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.009828603826463223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>wt_pct_ss_T</t>
+          <t>wt_pct_ss_S</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01076269708573818</v>
+        <v>0.01014609634876251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009386640042066574</v>
+        <v>0.009897083044052124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008787767961621284</v>
+        <v>0.009730573743581772</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01024421118199825</v>
+        <v>0.009494610130786896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009989659301936626</v>
+        <v>0.01025209855288267</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00874906312674284</v>
+        <v>0.008437326177954674</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008234699256718159</v>
+        <v>0.009041387587785721</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01033209357410669</v>
+        <v>0.009113539010286331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01138416025787592</v>
+        <v>0.009871270507574081</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009516696445643902</v>
+        <v>0.009551514871418476</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009738768450915813</v>
+        <v>0.008776270784437656</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.008722960017621517</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00939882081001997</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.009279504418373108</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.00987467635422945</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.007730623707175255</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.009426305070519447</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.009371226653456688</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.00825672410428524</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.008665969595313072</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.009251927956938744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>wt_pct_ss_S</t>
+          <t>wt_pct_ss_-</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01016380172222853</v>
+        <v>0.0155535414814949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01008754875510931</v>
+        <v>0.01641287840902805</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008954613469541073</v>
+        <v>0.01529031991958618</v>
       </c>
       <c r="E8" t="n">
-        <v>0.009181535802781582</v>
+        <v>0.01469114609062672</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008470533415675163</v>
+        <v>0.01508599054068327</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008512668311595917</v>
+        <v>0.01318887528032064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009121560491621494</v>
+        <v>0.01547905802726746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01085060182958841</v>
+        <v>0.01537779346108437</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009404750540852547</v>
+        <v>0.01708042435348034</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008662343956530094</v>
+        <v>0.01621011830866337</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009340995922684669</v>
+        <v>0.0144250588491559</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01771470531821251</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01445177290588617</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01643684878945351</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01586605235934258</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01763159409165382</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01535225100815296</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0167724285274744</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01655671745538712</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.01651907712221146</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01580483093857765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>wt_pct_ss_-</t>
+          <t>WT_Pct_hotloop</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01701644621789455</v>
+        <v>0.01008967217057943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01151852123439312</v>
+        <v>0.009345773607492447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01249838620424271</v>
+        <v>0.008063492365181446</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01292368955910206</v>
+        <v>0.008881477639079094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01430684700608253</v>
+        <v>0.008258752524852753</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01546680741012096</v>
+        <v>0.01033756043761969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01637449488043785</v>
+        <v>0.009072953835129738</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01366222277283669</v>
+        <v>0.009864985011518002</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01360707636922598</v>
+        <v>0.00871639046818018</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01406554598361254</v>
+        <v>0.009127303957939148</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01414400339126587</v>
+        <v>0.01133592240512371</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007517691235989332</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01079859025776386</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.009434250183403492</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.01011689845472574</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.01005834992974997</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.009242047555744648</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.009695521555840969</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.01006748341023922</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.01064761821180582</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.009533636271953583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>layer2_wt_pct_ss_E</t>
+          <t>wt_foldx_cis_bond</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004434023983776569</v>
+        <v>0.02246046997606754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004666054155677557</v>
+        <v>0.02832227759063244</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004855871666222811</v>
+        <v>0.02830778993666172</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004420685116201639</v>
+        <v>0.02549866586923599</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005195224657654762</v>
+        <v>0.02860619500279427</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004885803442448378</v>
+        <v>0.0254154559224844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004863417707383633</v>
+        <v>0.03021828085184097</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005835752468556166</v>
+        <v>0.02667095325887203</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005308576859533787</v>
+        <v>0.02333115972578526</v>
       </c>
       <c r="K10" t="n">
-        <v>0.005000788252800703</v>
+        <v>0.01749291829764843</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004946619737893343</v>
+        <v>0.02136353217065334</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01945704221725464</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.02181104756891727</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.03223320096731186</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.02397300116717815</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.017111511901021</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0240523349493742</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.02045493759214878</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.02278790436685085</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.02420966140925884</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.02418891340494156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>WT_Pct_coils</t>
+          <t>wt_foldx_torsional clash</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009170352481305599</v>
+        <v>0.00816086120903492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009116550907492638</v>
+        <v>0.007256200071424246</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009681857191026211</v>
+        <v>0.007798479869961739</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009762458503246307</v>
+        <v>0.007392239756882191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008480282500386238</v>
+        <v>0.008101142011582851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01068434026092291</v>
+        <v>0.007607937790453434</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009328657761216164</v>
+        <v>0.007257402874529362</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009109839797019958</v>
+        <v>0.007338699884712696</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00799997616559267</v>
+        <v>0.008245488628745079</v>
       </c>
       <c r="K11" t="n">
-        <v>0.008852307684719563</v>
+        <v>0.006529221311211586</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009218662977218628</v>
+        <v>0.00659469049423933</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.006252176128327847</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.006417565513402224</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.006079527083784342</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.005696292500942945</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.006414051167666912</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.006398053374141455</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.006428373977541924</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.006403089966624975</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.005751324817538261</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.00690613966435194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>WT_Pct_rem465</t>
+          <t>wt_foldx_helix dipole</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01771840639412403</v>
+        <v>0.009202752262353897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0228203572332859</v>
+        <v>0.009588448330760002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02132740058004856</v>
+        <v>0.009490800090134144</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03159239143133163</v>
+        <v>0.01002034172415733</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02695154026150703</v>
+        <v>0.008419296704232693</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01810653880238533</v>
+        <v>0.009732144884765148</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02005881257355213</v>
+        <v>0.009377222508192062</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03700760006904602</v>
+        <v>0.009573871269822121</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01188136264681816</v>
+        <v>0.008371629752218723</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02915055118501186</v>
+        <v>0.00836323294788599</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02366149611771107</v>
+        <v>0.009577728807926178</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01029567886143923</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.009633658453822136</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01053381338715553</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.009453333914279938</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.009941587224602699</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01183443050831556</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.01111646462231874</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.01002704724669456</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.01229381561279297</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.009842365048825741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>WT_NMA_Fluctuation</t>
+          <t>wt_foldx_disulfide</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004119200631976128</v>
+        <v>0.01782142370939255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004722757264971733</v>
+        <v>0.02521966211497784</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004717914387583733</v>
+        <v>0.01914479769766331</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004947193898260593</v>
+        <v>0.02152694202959538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004142045974731445</v>
+        <v>0.0257622804492712</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004869585391134024</v>
+        <v>0.01904323883354664</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004160514567047358</v>
+        <v>0.01845718920230865</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005065239500254393</v>
+        <v>0.01962112262845039</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004366145003587008</v>
+        <v>0.02562939934432507</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005364384967833757</v>
+        <v>0.01653348281979561</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004647498019039631</v>
+        <v>0.01910366863012314</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01333437208086252</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01641172543168068</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.01563815958797932</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.01478341780602932</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.01603549160063267</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01607299968600273</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.01700930297374725</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.02117090858519077</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.01622251234948635</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.01872710511088371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_total energy</t>
+          <t>wt_foldx_energy Ionisation</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006864567752927542</v>
+        <v>0.01003951299935579</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006586466450244188</v>
+        <v>0.009949589148163795</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006045359186828136</v>
+        <v>0.009272610768675804</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005297106690704823</v>
+        <v>0.01005272846668959</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007056867703795433</v>
+        <v>0.009860152378678322</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006322016473859549</v>
+        <v>0.009273065254092216</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006511279381811619</v>
+        <v>0.01103702839463949</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005962620489299297</v>
+        <v>0.01006744429469109</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006065824534744024</v>
+        <v>0.008886842988431454</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006264090072363615</v>
+        <v>0.01084307581186295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006297619547694921</v>
+        <v>0.01019470021128654</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.009213350713253021</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.009064693935215473</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.009141819551587105</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.009685738943517208</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.00891399011015892</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.01041811425238848</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.00953129306435585</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.00879309419542551</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.008983069099485874</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.009661096148192883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_Backbone Hbond</t>
+          <t>WT_Num_HBOND_Ring</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006209819577634335</v>
+        <v>0.01409058831632137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00602497486397624</v>
+        <v>0.01585641130805016</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005962826311588287</v>
+        <v>0.01405783463269472</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005540837999433279</v>
+        <v>0.01226958818733692</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005323385819792747</v>
+        <v>0.0159207358956337</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006309735123068094</v>
+        <v>0.01583193801343441</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006873379461467266</v>
+        <v>0.01624049805104733</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006025037262588739</v>
+        <v>0.01241324935108423</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00633058650419116</v>
+        <v>0.01662983186542988</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005682696122676134</v>
+        <v>0.01196039281785488</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006028328090906143</v>
+        <v>0.01308464724570513</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0142299672588706</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01503221970051527</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01200904790312052</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01407558564096689</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.01293875183910131</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.01228893175721169</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.01185999345034361</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.01394715066999197</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0126147149130702</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.01386760454624891</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_Van der Waals clashes</t>
+          <t>WT_Num_VDW_Ring</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.006406982894986868</v>
+        <v>0.0108293304219842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007269212044775486</v>
+        <v>0.01067113131284714</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007133340928703547</v>
+        <v>0.009163795970380306</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006900676060467958</v>
+        <v>0.01248827669769526</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006019485648721457</v>
+        <v>0.01064201630651951</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00658379215747118</v>
+        <v>0.01034577190876007</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006640119478106499</v>
+        <v>0.01134236808866262</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006800425704568624</v>
+        <v>0.01131782215088606</v>
       </c>
       <c r="J16" t="n">
-        <v>0.006030210293829441</v>
+        <v>0.0112185887992382</v>
       </c>
       <c r="K16" t="n">
-        <v>0.008370923809707165</v>
+        <v>0.0130384424701333</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006815516389906406</v>
+        <v>0.01298286020755768</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.014792300760746</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01579399779438972</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.013283496722579</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.01287276297807693</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.01427581440657377</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01096777711063623</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.01145236473530531</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.01489295903593302</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0125139681622386</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.01224429160356522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_cis_bond</t>
+          <t>WT_Num_PIPISTACK_Ring</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02937872335314751</v>
+        <v>0.01673160307109356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04966669902205467</v>
+        <v>0.01781834661960602</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03880608454346657</v>
+        <v>0.01747661456465721</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04777294024825096</v>
+        <v>0.01868021674454212</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03114286996424198</v>
+        <v>0.01632067561149597</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01696407422423363</v>
+        <v>0.0175331961363554</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01403233781456947</v>
+        <v>0.0203213281929493</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02569760382175446</v>
+        <v>0.01524670608341694</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03845091909170151</v>
+        <v>0.01791952364146709</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0231779683381319</v>
+        <v>0.01910685189068317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03150902688503265</v>
+        <v>0.02156424894928932</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.02155158855021</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.02118919417262077</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.02028877101838589</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.02602430991828442</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.01926237531006336</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.02716765552759171</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02719529718160629</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.01671968214213848</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.02521245367825031</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.02016653306782246</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_torsional clash</t>
+          <t>WT_Num_PIPISTACK_Ring_Layer1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006985710933804512</v>
+        <v>0.01153165474534035</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006919206585735083</v>
+        <v>0.01225799042731524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008530356921255589</v>
+        <v>0.01257694512605667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006177089177072048</v>
+        <v>0.01177221536636353</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006528905127197504</v>
+        <v>0.009602503851056099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007842568680644035</v>
+        <v>0.01176900696009398</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007261646911501884</v>
+        <v>0.009895735420286655</v>
       </c>
       <c r="I18" t="n">
-        <v>0.007657802198082209</v>
+        <v>0.01062985975295305</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007712471764534712</v>
+        <v>0.01230448018759489</v>
       </c>
       <c r="K18" t="n">
-        <v>0.006483066361397505</v>
+        <v>0.008527186699211597</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007209882140159607</v>
+        <v>0.008456319570541382</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.009704228490591049</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.007308659143745899</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.008459285832941532</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.007568358909338713</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.0064728744328022</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.008851530030369759</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.008641082793474197</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.005988018121570349</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.009310918860137463</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.00958144199103117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_backbone clash</t>
+          <t>WT_Num_VDW_Ring_Layer2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006731429137289524</v>
+        <v>0.006220507435500622</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007439264561980963</v>
+        <v>0.006422845646739006</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006330241449177265</v>
+        <v>0.005772561766207218</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006288125645369291</v>
+        <v>0.00550162373110652</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005900552496314049</v>
+        <v>0.006492459680885077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007149728015065193</v>
+        <v>0.00578444916754961</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007235125172883272</v>
+        <v>0.006775671150535345</v>
       </c>
       <c r="I19" t="n">
-        <v>0.006180605851113796</v>
+        <v>0.005843635648488998</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00738188810646534</v>
+        <v>0.005872104316949844</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006677908822894096</v>
+        <v>0.006683509796857834</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00673148687928915</v>
+        <v>0.006928299553692341</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.006867947988212109</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.006492066662758589</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.006542482879012823</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.006599904969334602</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.005555226933211088</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.006452498491853476</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.006914116442203522</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.005990967154502869</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.007282424718141556</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.006349764764308929</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_helix dipole</t>
+          <t>WT_Num_PIPISTACK_Ring_Layer2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009667559526860714</v>
+        <v>0.01303435582667589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01156582962721586</v>
+        <v>0.009740891866385937</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009747431613504887</v>
+        <v>0.0120985321700573</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01390658505260944</v>
+        <v>0.009895452298223972</v>
       </c>
       <c r="F20" t="n">
-        <v>0.009543072432279587</v>
+        <v>0.01345825660973787</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01117780059576035</v>
+        <v>0.01120257563889027</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0147653678432107</v>
+        <v>0.01267275400459766</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01285846345126629</v>
+        <v>0.01274066511541605</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01056375820189714</v>
+        <v>0.008716456592082977</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01353607047349215</v>
+        <v>0.01261652167886496</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01173319481313229</v>
+        <v>0.009457740932703018</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.01014424860477448</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01237704884260893</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01103307027369738</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.01165199372917414</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.01081063225865364</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.01027072593569756</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.01018590852618217</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.009851794689893723</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.008883788250386715</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01104217115789652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_disulfide</t>
+          <t>WT_Num_HD_Cluster_Protlego_Layer1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03029483370482922</v>
+        <v>0.009085391648113728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0234092716127634</v>
+        <v>0.01053917687386274</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02764763683080673</v>
+        <v>0.009939526207745075</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02488924190402031</v>
+        <v>0.009239173494279385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02902654558420181</v>
+        <v>0.00755763053894043</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02720991335809231</v>
+        <v>0.01021983847022057</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03205549344420433</v>
+        <v>0.01148514449596405</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02256620302796364</v>
+        <v>0.008434931747615337</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02995351701974869</v>
+        <v>0.01034741662442684</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02448531799018383</v>
+        <v>0.009626354090869427</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02715379558503628</v>
+        <v>0.008640654385089874</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.006408879067748785</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.006101945415139198</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.007768487092107534</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.00736495153978467</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.01000669412314892</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.006291838828474283</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.007875730283558369</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.007977571338415146</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.007094528991729021</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.008600292727351189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>wt_foldx_energy Ionisation</t>
+          <t>WT_Max_HD_Cluster_Area</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01010889746248722</v>
+        <v>0.01530318520963192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01055893860757351</v>
+        <v>0.01372940186411142</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01152954902499914</v>
+        <v>0.01290739513933659</v>
       </c>
       <c r="E22" t="n">
-        <v>0.009761841967701912</v>
+        <v>0.01395602617412806</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009464834816753864</v>
+        <v>0.01412983890622854</v>
       </c>
       <c r="G22" t="n">
-        <v>0.009694531559944153</v>
+        <v>0.01404905878007412</v>
       </c>
       <c r="H22" t="n">
-        <v>0.009711834602057934</v>
+        <v>0.01298813428729773</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01010885834693909</v>
+        <v>0.01457089930772781</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01094978675246239</v>
+        <v>0.01250418089330196</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01103997509926558</v>
+        <v>0.01359567418694496</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01029290445148945</v>
+        <v>0.01492298115044832</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01495439186692238</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01662899553775787</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01660538092255592</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.01575624942779541</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.01529636885970831</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.01376535091549158</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.01676739938557148</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.01366802770644426</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01536054443567991</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01457297336310148</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>WT_Num_PIPISTACK_Ring</t>
+          <t>wt_num_pharm_c_aromatics</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02132693119347095</v>
+        <v>0.03590407595038414</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02330593019723892</v>
+        <v>0.03935248404741287</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02286827936768532</v>
+        <v>0.04537243768572807</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02217148803174496</v>
+        <v>0.03129387646913528</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01662842556834221</v>
+        <v>0.03283220157027245</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02465804107487202</v>
+        <v>0.0433637872338295</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02130611799657345</v>
+        <v>0.0340067483484745</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02399899438023567</v>
+        <v>0.03480323031544685</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02548401243984699</v>
+        <v>0.03629422560334206</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02723863534629345</v>
+        <v>0.04344472289085388</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02289868518710136</v>
+        <v>0.04117495194077492</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.03379972279071808</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03640379384160042</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.03870568796992302</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.02345121465623379</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.04213506728410721</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.03441786020994186</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.03452571853995323</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.03677304834127426</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.03061897493898869</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.03643368929624557</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>WT_Num_PIPISTACK_Ring_Layer1</t>
+          <t>wt_num_pharm_c_hydrophobics</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0145236486569047</v>
+        <v>0.01105960831046104</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01505834702402353</v>
+        <v>0.01452637929469347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01498367357999086</v>
+        <v>0.01589491032063961</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01330250687897205</v>
+        <v>0.01388563495129347</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01585661061108112</v>
+        <v>0.01459889858961105</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0118473693728447</v>
+        <v>0.01547231152653694</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01402324624359608</v>
+        <v>0.0118649173527956</v>
       </c>
       <c r="I24" t="n">
-        <v>0.016384432092309</v>
+        <v>0.0133311441168189</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00658230809494853</v>
+        <v>0.01597603410482407</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01327522844076157</v>
+        <v>0.01522218715399504</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01358373649418354</v>
+        <v>0.01598433218896389</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0166093036532402</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01821185648441315</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.01488320622593164</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.01470724400132895</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0166875384747982</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.01242982037365437</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.01597085408866405</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.01641792804002762</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.01823637448251247</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01509852427989244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>WT_Num_HBOND_Ring_Layer3</t>
+          <t>layer1_wt_num_pharm_c_hb_donors</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007787559181451797</v>
+        <v>0.007568597327917814</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006977059412747622</v>
+        <v>0.007937211543321609</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00632283603772521</v>
+        <v>0.008454223163425922</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006654561031609774</v>
+        <v>0.00813706312328577</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006597821600735188</v>
+        <v>0.007248034235090017</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008431972935795784</v>
+        <v>0.007740838918834925</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007125691045075655</v>
+        <v>0.006788826081901789</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006598569452762604</v>
+        <v>0.009553483687341213</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006621547508984804</v>
+        <v>0.006989968940615654</v>
       </c>
       <c r="K25" t="n">
-        <v>0.006951561663299799</v>
+        <v>0.008365473710000515</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007006918080151081</v>
+        <v>0.009148354642093182</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.007951890118420124</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.008234483189880848</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.008819518610835075</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.007745206356048584</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.008163481950759888</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.008502974174916744</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.009681797586381435</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.008965627290308475</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0078933360055089</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.008194519206881523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>WT_Num_PIPISTACK_Ring_Layer3</t>
+          <t>layer1_wt_num_pharm_c_hydrophobics</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008691674098372459</v>
+        <v>0.009477161802351475</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008121480233967304</v>
+        <v>0.01002121157944202</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009238036349415779</v>
+        <v>0.009490146301686764</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007566298823803663</v>
+        <v>0.00994633324444294</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006966379005461931</v>
+        <v>0.01033426728099585</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006121011916548014</v>
+        <v>0.009862730279564857</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007954207248985767</v>
+        <v>0.009253324940800667</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007913730107247829</v>
+        <v>0.01010536774992943</v>
       </c>
       <c r="J26" t="n">
-        <v>0.007423085160553455</v>
+        <v>0.01166243758052588</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01340938918292522</v>
+        <v>0.01025855634361506</v>
       </c>
       <c r="L26" t="n">
-        <v>0.008340529166162014</v>
+        <v>0.00959562323987484</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.008043358102440834</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.008860087022185326</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.00956428237259388</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.009747768752276897</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.01098896190524101</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.009052983485162258</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.01010169833898544</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.008685369044542313</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.01070300675928593</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.009787733666598797</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>WT_Num_HD_Cluster_Protlego</t>
+          <t>layer2_wt_num_pharm_c_hb_acceptors</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01629678346216679</v>
+        <v>0.009235194884240627</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01576811634004116</v>
+        <v>0.01024531200528145</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01499787159264088</v>
+        <v>0.008838687092065811</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01126568578183651</v>
+        <v>0.01054010353982449</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01462479587644339</v>
+        <v>0.00903786439448595</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01505450718104839</v>
+        <v>0.009434383362531662</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01462156232446432</v>
+        <v>0.009550197049975395</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0162334069609642</v>
+        <v>0.009088112041354179</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01026734802871943</v>
+        <v>0.01095227897167206</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01461208425462246</v>
+        <v>0.009681322611868382</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01437421608716249</v>
+        <v>0.01236768160015345</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01011765096336603</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.01152018364518881</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.01062034536153078</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01184795144945383</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01099676173180342</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.009288517758250237</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.009557163342833519</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.01070253644138575</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.009909455664455891</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0101765850558877</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>WT_Num_HD_Cluster_Protlego_Layer1</t>
+          <t>layer2_wt_num_pharm_c_hb_donors</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009441956877708435</v>
+        <v>0.008663127198815346</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009294373914599419</v>
+        <v>0.00746396416798234</v>
       </c>
       <c r="D28" t="n">
-        <v>0.007039184216409922</v>
+        <v>0.007084861397743225</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009287264198064804</v>
+        <v>0.008059408515691757</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01234173309057951</v>
+        <v>0.007829436101019382</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01012799795717001</v>
+        <v>0.009083864279091358</v>
       </c>
       <c r="H28" t="n">
-        <v>0.009461697190999985</v>
+        <v>0.008075902238488197</v>
       </c>
       <c r="I28" t="n">
-        <v>0.009536657482385635</v>
+        <v>0.008688081055879593</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01420732494443655</v>
+        <v>0.008753621950745583</v>
       </c>
       <c r="K28" t="n">
-        <v>0.009366364218294621</v>
+        <v>0.006645243149250746</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01001045480370522</v>
+        <v>0.007352650631219149</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.008062486536800861</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.007312594447284937</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.008269339799880981</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.007944222539663315</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.00695778476074338</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.008568761870265007</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.007537262048572302</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.007896461524069309</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.007091428618878126</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.007867025211453438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>WT_Max_HD_Cluster_Area</t>
+          <t>layer3_wt_num_pharm_c_hydrophobics</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01476823166012764</v>
+        <v>0.01302818022668362</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01402908284217119</v>
+        <v>0.01128013245761395</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0127648776397109</v>
+        <v>0.01123231276869774</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01610385626554489</v>
+        <v>0.01179973129183054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01294162217527628</v>
+        <v>0.01236983388662338</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0129749346524477</v>
+        <v>0.01040577609091997</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01341434475034475</v>
+        <v>0.01292385905981064</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01301781553775072</v>
+        <v>0.01209523715078831</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01514202170073986</v>
+        <v>0.01301048789173365</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01234085112810135</v>
+        <v>0.01225043926388025</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01374976336956024</v>
+        <v>0.01319979876279831</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0128234950825572</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01308945007622242</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01150557957589626</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.01180051360279322</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.01301143039017916</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.01154362037777901</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.01239029504358768</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.01204267516732216</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.008552641607820988</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.01201777346432209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>wt_num_pharm_c_aromatics</t>
+          <t>WT_RSA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03505633398890495</v>
+        <v>0.009870151989161968</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03021016158163548</v>
+        <v>0.01155206933617592</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03724366053938866</v>
+        <v>0.01113483123481274</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0332491360604763</v>
+        <v>0.01092846598476171</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02692778222262859</v>
+        <v>0.01008943188935518</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03922761976718903</v>
+        <v>0.009873979724943638</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04139279946684837</v>
+        <v>0.01191524788737297</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02907976321876049</v>
+        <v>0.01122612133622169</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03501323983073235</v>
+        <v>0.009744355455040932</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03216738253831863</v>
+        <v>0.0123786348849535</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03395678848028183</v>
+        <v>0.0125194787979126</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01274092774838209</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0135653568431735</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01186254341155291</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.01188203319907188</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01166841201484203</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.01103163883090019</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01172234956175089</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0118577852845192</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.01357983704656363</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.01155718322843313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>layer1_wt_num_pharm_c_hydrophobics</t>
+          <t>wt_aaindex1_Normalized frequency of C-terminal beta-sheet (Chou-Fasman, 1978b)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.007465813774615526</v>
+        <v>0.01049060374498367</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008343473076820374</v>
+        <v>0.009457623586058617</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008617174811661243</v>
+        <v>0.01166983135044575</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008949010632932186</v>
+        <v>0.01077190414071083</v>
       </c>
       <c r="F31" t="n">
-        <v>0.008847676217556</v>
+        <v>0.00961415097117424</v>
       </c>
       <c r="G31" t="n">
-        <v>0.009571561589837074</v>
+        <v>0.01010594610124826</v>
       </c>
       <c r="H31" t="n">
-        <v>0.007719004061073065</v>
+        <v>0.01160714402794838</v>
       </c>
       <c r="I31" t="n">
-        <v>0.008278044871985912</v>
+        <v>0.01145129930227995</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00772572448477149</v>
+        <v>0.01015272084623575</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009012219496071339</v>
+        <v>0.009423074312508106</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00845296960324049</v>
+        <v>0.01009551621973515</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.009060477837920189</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01155650150030851</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00937640480697155</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.008605333045125008</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.008380163460969925</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.009904563426971436</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0116753438487649</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.01051485352218151</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.008322128094732761</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.01011177990585566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>layer2_wt_num_pharm_c_hb_acceptors</t>
+          <t>wt_aaindex1_Weights for alpha-helix at the window position of 0 (Qian-Sejnowski, 1988)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008434006944298744</v>
+        <v>0.009872721508145332</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008481313474476337</v>
+        <v>0.006794869434088469</v>
       </c>
       <c r="D32" t="n">
-        <v>0.007378661073744297</v>
+        <v>0.006840023212134838</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008508319966495037</v>
+        <v>0.009703791700303555</v>
       </c>
       <c r="F32" t="n">
-        <v>0.009748800657689571</v>
+        <v>0.007364460732787848</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009169045835733414</v>
+        <v>0.009969600476324558</v>
       </c>
       <c r="H32" t="n">
-        <v>0.008587893098592758</v>
+        <v>0.00613638199865818</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009442519396543503</v>
+        <v>0.009031779132783413</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009351570159196854</v>
+        <v>0.006452795583754778</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01008561719208956</v>
+        <v>0.009202173911035061</v>
       </c>
       <c r="L32" t="n">
-        <v>0.008918775245547295</v>
+        <v>0.008562345989048481</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.007619497831910849</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.007912566885352135</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.007379511371254921</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.006591455079615116</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.007315450813621283</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.006920613814145327</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.007178750820457935</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.008244624361395836</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.007547511719167233</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.007832047529518604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>layer2_wt_num_pharm_c_aromatics</t>
+          <t>diff_foldx_total energy</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.009339837357401848</v>
+        <v>0.04657039046287537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007551622577011585</v>
+        <v>0.04526376351714134</v>
       </c>
       <c r="D33" t="n">
-        <v>0.007871333509683609</v>
+        <v>0.04643821716308594</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00816205982118845</v>
+        <v>0.04827644675970078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007132311817258596</v>
+        <v>0.04603438451886177</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007142332382500172</v>
+        <v>0.04531053826212883</v>
       </c>
       <c r="H33" t="n">
-        <v>0.007234824355691671</v>
+        <v>0.04610269889235497</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00789002887904644</v>
+        <v>0.04723409190773964</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007512415293604136</v>
+        <v>0.04658685997128487</v>
       </c>
       <c r="K33" t="n">
-        <v>0.007564674131572247</v>
+        <v>0.04557915031909943</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0077401427552104</v>
+        <v>0.04868300631642342</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.04951860755681992</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0497625432908535</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.04751885682344437</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.04776142537593842</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.05098889768123627</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.05032594874501228</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.04728402569890022</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.049371387809515</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.04872526973485947</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.04766682162880898</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>layer2_wt_num_pharm_c_hydrophobics</t>
+          <t>diff_foldx_Solvation Hydrophobic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.009583997540175915</v>
+        <v>0.02461097203195095</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008899439126253128</v>
+        <v>0.02360678277909756</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007949918508529663</v>
+        <v>0.02140592224895954</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008139202371239662</v>
+        <v>0.02322679944336414</v>
       </c>
       <c r="F34" t="n">
-        <v>0.009368043392896652</v>
+        <v>0.02342354506254196</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008772699162364006</v>
+        <v>0.02292709425091743</v>
       </c>
       <c r="H34" t="n">
-        <v>0.008335988968610764</v>
+        <v>0.02576372772455215</v>
       </c>
       <c r="I34" t="n">
-        <v>0.009079336188733578</v>
+        <v>0.02403762377798557</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009134280495345592</v>
+        <v>0.02199775166809559</v>
       </c>
       <c r="K34" t="n">
-        <v>0.009436842985451221</v>
+        <v>0.01757767423987389</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008869973942637444</v>
+        <v>0.01781437732279301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01531953271478415</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01825845800340176</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01844423823058605</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01811164431273937</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.01856743544340134</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.01591298915445805</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.01587539725005627</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.01837112568318844</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.01524318009614944</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.02002481557428837</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>layer3_wt_num_pharm_c_hydrophobics</t>
+          <t>diff_foldx_energy Ionisation</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01001728698611259</v>
+        <v>0.008964302018284798</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01004595123231411</v>
+        <v>0.008059675805270672</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01265335734933615</v>
+        <v>0.006139011587947607</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0107216713950038</v>
+        <v>0.007407308090478182</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01005655899643898</v>
+        <v>0.008335313759744167</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009842270985245705</v>
+        <v>0.008337519131600857</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009710108861327171</v>
+        <v>0.009154794737696648</v>
       </c>
       <c r="I35" t="n">
-        <v>0.009847431443631649</v>
+        <v>0.009331714361906052</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00974816270172596</v>
+        <v>0.008156696334481239</v>
       </c>
       <c r="K35" t="n">
-        <v>0.00792032852768898</v>
+        <v>0.008276209235191345</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01005631219595671</v>
+        <v>0.00737480167299509</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.007587937638163567</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.007776728831231594</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.007521444000303745</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.008096073754131794</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.006972412578761578</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.008022289723157883</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.007871960289776325</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.00992739200592041</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.009048566222190857</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.008118106983602047</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>WT_RSA</t>
+          <t>Diff_Num_VDW_Ring_Layer1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008483117446303368</v>
+        <v>0.005574837792664766</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009133928455412388</v>
+        <v>0.005638736765831709</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008443993516266346</v>
+        <v>0.005356616340577602</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008052472025156021</v>
+        <v>0.005699559114873409</v>
       </c>
       <c r="F36" t="n">
-        <v>0.008955778554081917</v>
+        <v>0.005287941545248032</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009714413434267044</v>
+        <v>0.005313148256391287</v>
       </c>
       <c r="H36" t="n">
-        <v>0.008977374061942101</v>
+        <v>0.006289246492087841</v>
       </c>
       <c r="I36" t="n">
-        <v>0.008367222733795643</v>
+        <v>0.005424836184829473</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00909221637994051</v>
+        <v>0.005027676466852427</v>
       </c>
       <c r="K36" t="n">
-        <v>0.007235914934426546</v>
+        <v>0.005632898770272732</v>
       </c>
       <c r="L36" t="n">
-        <v>0.008645643480122089</v>
+        <v>0.00565752200782299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.006408642046153545</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.005213571712374687</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.00529261352494359</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.005667900666594505</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.005966982338577509</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.004976925440132618</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.004513734951615334</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0054327049292624</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.005002443213015795</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.005468927323818207</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>wt_aaindex1_Normalized frequency of C-terminal beta-sheet (Chou-Fasman, 1978b)</t>
+          <t>diff_num_pharm_c_hb_acceptors</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01954430900514126</v>
+        <v>0.0173931922763586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01907355524599552</v>
+        <v>0.0162042174488306</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01447014510631561</v>
+        <v>0.013200793415308</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01517531648278236</v>
+        <v>0.01648236066102982</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01435931213200092</v>
+        <v>0.01586073264479637</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01313339546322823</v>
+        <v>0.01831179857254028</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01279470138251781</v>
+        <v>0.02089749649167061</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01835099793970585</v>
+        <v>0.01629848591983318</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01484633143991232</v>
+        <v>0.0141430301591754</v>
       </c>
       <c r="K37" t="n">
-        <v>0.009537025354802608</v>
+        <v>0.02093624509871006</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01512850821018219</v>
+        <v>0.01763693988323212</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01618420518934727</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01866385340690613</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02104712463915348</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.01783139072358608</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.01833131909370422</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.01939280331134796</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.02136390097439289</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.02175569906830788</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.02116049639880657</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.01815480552613735</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>diff_foldx_total energy</t>
+          <t>diff_num_pharm_c_hb_donors</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07030296325683594</v>
+        <v>0.01338122133165598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06552903354167938</v>
+        <v>0.0153169147670269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06699008494615555</v>
+        <v>0.01501057017594576</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06745833158493042</v>
+        <v>0.01308670081198215</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0688941478729248</v>
+        <v>0.01326493732631207</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07061690837144852</v>
+        <v>0.01318327337503433</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06846121698617935</v>
+        <v>0.01036624237895012</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07094636559486389</v>
+        <v>0.01389815099537373</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06973390281200409</v>
+        <v>0.01414529979228973</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06691886484622955</v>
+        <v>0.01286482531577349</v>
       </c>
       <c r="L38" t="n">
-        <v>0.06858517974615097</v>
+        <v>0.01253736764192581</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01214290224015713</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01291828136891127</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01136287674307823</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.01219074334949255</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.01161193381994963</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.01165193878114223</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.01183551270514727</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.01067271642386913</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0136690391227603</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.01275557279586792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>diff_foldx_Solvation Hydrophobic</t>
+          <t>diff_num_pharm_c_hydrophobics</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01816884055733681</v>
+        <v>0.01311271265149117</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0162353403866291</v>
+        <v>0.01365575287491083</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01460933778434992</v>
+        <v>0.01150340586900711</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0184068214148283</v>
+        <v>0.01263751182705164</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01348217949271202</v>
+        <v>0.01487107574939728</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02230845205485821</v>
+        <v>0.01214199233800173</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01559008564800024</v>
+        <v>0.01148992870002985</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01879890263080597</v>
+        <v>0.01288315001875162</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01508352439850569</v>
+        <v>0.0138761242851615</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01215682830661535</v>
+        <v>0.01397616323083639</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01648403145372868</v>
+        <v>0.01222339831292629</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.01356497500091791</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.01379933301359415</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.01697312295436859</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.01607617735862732</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.01331151556223631</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.01404473464936018</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.01373200118541718</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.01224910747259855</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.01253919769078493</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0134330689907074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Diff_Num_HBOND_Ring</t>
+          <t>diff_aaindex1_alpha-NH chemical shifts (Bundi-Wuthrich, 1979)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005912610795348883</v>
+        <v>0.008916420862078667</v>
       </c>
       <c r="C40" t="n">
-        <v>0.006466089747846127</v>
+        <v>0.009080035611987114</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006154736969619989</v>
+        <v>0.007917794398963451</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006432181224226952</v>
+        <v>0.009994570165872574</v>
       </c>
       <c r="F40" t="n">
-        <v>0.006435084156692028</v>
+        <v>0.00886367354542017</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005630545783787966</v>
+        <v>0.009864057414233685</v>
       </c>
       <c r="H40" t="n">
-        <v>0.006431752350181341</v>
+        <v>0.008896439336240292</v>
       </c>
       <c r="I40" t="n">
-        <v>0.006036846432834864</v>
+        <v>0.008147787302732468</v>
       </c>
       <c r="J40" t="n">
-        <v>0.006691425107419491</v>
+        <v>0.008645568042993546</v>
       </c>
       <c r="K40" t="n">
-        <v>0.006156116724014282</v>
+        <v>0.01042808312922716</v>
       </c>
       <c r="L40" t="n">
-        <v>0.006234738975763321</v>
+        <v>0.01018634904175997</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01073664147406816</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.009550131857395172</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.009898846969008446</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.01049161516129971</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.009174756705760956</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.008215292356908321</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.008353864774107933</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.01006651390343904</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.009735901840031147</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.009358217008411884</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Diff_Num_VDW_Ring_Layer1</t>
+          <t>diff_aaindex1_pK-N (Fasman, 1976)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0048529296182096</v>
+        <v>0.009070620872080326</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005783493164926767</v>
+        <v>0.009304245933890343</v>
       </c>
       <c r="D41" t="n">
-        <v>0.005049115978181362</v>
+        <v>0.009153204970061779</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005399193149060011</v>
+        <v>0.008787340484559536</v>
       </c>
       <c r="F41" t="n">
-        <v>0.006097453646361828</v>
+        <v>0.009450685232877731</v>
       </c>
       <c r="G41" t="n">
-        <v>0.005723677575588226</v>
+        <v>0.009487724862992764</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004813432693481445</v>
+        <v>0.007926669903099537</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007044702768325806</v>
+        <v>0.009496232494711876</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005075696855783463</v>
+        <v>0.009791607037186623</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004672280512750149</v>
+        <v>0.008392706513404846</v>
       </c>
       <c r="L41" t="n">
-        <v>0.005451197735965252</v>
+        <v>0.01013236213475466</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.00872123334556818</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.008312450721859932</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.01045480836182833</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.01005215384066105</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.009455900639295578</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0089834313839674</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.008878467604517937</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0101035675033927</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.008534520864486694</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.009224497713148594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>diff_num_pharm_c_hydrophobics</t>
+          <t>diff_aaindex1_Side chain interaction parameter (Krigbaum-Rubin, 1971)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01423642132431269</v>
+        <v>0.01216670125722885</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0124672818928957</v>
+        <v>0.01262265164405107</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01922032050788403</v>
+        <v>0.01024244446307421</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01516254618763924</v>
+        <v>0.01050698664039373</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0119559932500124</v>
+        <v>0.01399496756494045</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01247891876846552</v>
+        <v>0.0123928040266037</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01452227402478456</v>
+        <v>0.01203598082065582</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01517081540077925</v>
+        <v>0.01142326928675175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01513858698308468</v>
+        <v>0.01027248427271843</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01320965960621834</v>
+        <v>0.01282624807208776</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01435628067702055</v>
+        <v>0.01448275614529848</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01566259749233723</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01248456910252571</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01431810110807419</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01385084912180901</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.01443797070533037</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.01548196747899055</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.01196719706058502</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.01635956205427647</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.01514457631856203</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.01313373446464539</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>layer2_diff_num_pharm_c_aromatics</t>
+          <t>diff_aaindex1_AA composition of CYT2 of single-spanning proteins (Nakashima-Nishikawa,</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006742519792169333</v>
+        <v>0.007858087308704853</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006838163826614618</v>
+        <v>0.008681450970470905</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007542247418314219</v>
+        <v>0.007593633141368628</v>
       </c>
       <c r="E43" t="n">
-        <v>0.007260506972670555</v>
+        <v>0.008120797574520111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004998825024813414</v>
+        <v>0.009094353765249252</v>
       </c>
       <c r="G43" t="n">
-        <v>0.007181487511843443</v>
+        <v>0.008073242381215096</v>
       </c>
       <c r="H43" t="n">
-        <v>0.008486694656312466</v>
+        <v>0.007835349999368191</v>
       </c>
       <c r="I43" t="n">
-        <v>0.008728858083486557</v>
+        <v>0.009717211127281189</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005310956854373217</v>
+        <v>0.009187487885355949</v>
       </c>
       <c r="K43" t="n">
-        <v>0.006430645007640123</v>
+        <v>0.007702363189309835</v>
       </c>
       <c r="L43" t="n">
-        <v>0.006952091120183468</v>
+        <v>0.00815410353243351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.008761417120695114</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00860810000449419</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.008023985661566257</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.006742333061993122</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.007973873056471348</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.007392649073153734</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.006434294860810041</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.00868025328963995</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.007403729949146509</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.008101936429738998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Aperiodic indices (Geisow-Roberts, 1980)</t>
+          <t>diff_aaindex1_Normalized frequency of turn in all-alpha class (Palau et al., 1981)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007826011627912521</v>
+        <v>0.01084795407950878</v>
       </c>
       <c r="C44" t="n">
-        <v>0.007163372822105885</v>
+        <v>0.01021893508732319</v>
       </c>
       <c r="D44" t="n">
-        <v>0.008572867140173912</v>
+        <v>0.01114866230636835</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00695588206872344</v>
+        <v>0.009530629031360149</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00725475512444973</v>
+        <v>0.01098671182990074</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008439499884843826</v>
+        <v>0.008397970348596573</v>
       </c>
       <c r="H44" t="n">
-        <v>0.006117937155067921</v>
+        <v>0.009741619229316711</v>
       </c>
       <c r="I44" t="n">
-        <v>0.008715727366507053</v>
+        <v>0.010535703971982</v>
       </c>
       <c r="J44" t="n">
-        <v>0.006638449151068926</v>
+        <v>0.008798236958682537</v>
       </c>
       <c r="K44" t="n">
-        <v>0.006308730691671371</v>
+        <v>0.009847794659435749</v>
       </c>
       <c r="L44" t="n">
-        <v>0.007399323396384716</v>
+        <v>0.009632788598537445</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.009826795198023319</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01172676868736744</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.009437456727027893</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.008235592395067215</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.01074234303086996</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.01157334819436073</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.009287439286708832</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.009944848716259003</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.01050080452114344</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.01004812028259039</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Side chain interaction parameter (Krigbaum-Rubin, 1971)</t>
+          <t>diff_aaindex1_Average number of surrounding residues (Ponnuswamy et al., 1980)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01714943163096905</v>
+        <v>0.01123020984232426</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01069289166480303</v>
+        <v>0.008473839610815048</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01017902325838804</v>
+        <v>0.009389691986143589</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01127107907086611</v>
+        <v>0.01004122756421566</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01243949122726917</v>
+        <v>0.009374365210533142</v>
       </c>
       <c r="G45" t="n">
-        <v>0.009296709671616554</v>
+        <v>0.01063283812254667</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01124084182083607</v>
+        <v>0.007607568986713886</v>
       </c>
       <c r="I45" t="n">
-        <v>0.009376149624586105</v>
+        <v>0.01032230723649263</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01085586939007044</v>
+        <v>0.007973239757120609</v>
       </c>
       <c r="K45" t="n">
-        <v>0.009766317903995514</v>
+        <v>0.01210279203951359</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01122677978128195</v>
+        <v>0.009663639590144157</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01062964461743832</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.008897393010556698</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.01217554975301027</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.01123173534870148</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.01141655351966619</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.01391733530908823</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.008508064784109592</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.01015345379710197</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.01065958570688963</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.01022005267441273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Normalized frequency of reverse turn, with weights (Levitt, 1978)</t>
+          <t>diff_aaindex1_Weights for beta-sheet at the window position of 1 (Qian-Sejnowski, 1988)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007215745281428099</v>
+        <v>0.01847506873309612</v>
       </c>
       <c r="C46" t="n">
-        <v>0.005031128879636526</v>
+        <v>0.02582856081426144</v>
       </c>
       <c r="D46" t="n">
-        <v>0.005669459700584412</v>
+        <v>0.03014077059924603</v>
       </c>
       <c r="E46" t="n">
-        <v>0.007561902049928904</v>
+        <v>0.03309912607073784</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01027725357562304</v>
+        <v>0.02560131251811981</v>
       </c>
       <c r="G46" t="n">
-        <v>0.006291032303124666</v>
+        <v>0.0249843280762434</v>
       </c>
       <c r="H46" t="n">
-        <v>0.005930034909397364</v>
+        <v>0.03298501670360565</v>
       </c>
       <c r="I46" t="n">
-        <v>0.006477215327322483</v>
+        <v>0.02604125440120697</v>
       </c>
       <c r="J46" t="n">
-        <v>0.006572406273335218</v>
+        <v>0.0338752381503582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006820159032940865</v>
+        <v>0.01204952783882618</v>
       </c>
       <c r="L46" t="n">
-        <v>0.006784633733332157</v>
+        <v>0.01322787068784237</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.02847825549542904</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01209080871194601</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01181922666728497</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.01457911916077137</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.01524783205240965</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.01976544968783855</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.01951012760400772</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.01195479929447174</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.02525611221790314</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.02175048924982548</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Conformational preference for antiparallel beta-strands (Lifson-Sander, 1979)</t>
+          <t>diff_aaindex1_Weights for coil at the window position of -6 (Qian-Sejnowski, 1988)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01007799059152603</v>
+        <v>0.008325350470840931</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01252237893640995</v>
+        <v>0.006670727860182524</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009224783629179001</v>
+        <v>0.0108093973249197</v>
       </c>
       <c r="E47" t="n">
-        <v>0.009646453894674778</v>
+        <v>0.009754887782037258</v>
       </c>
       <c r="F47" t="n">
-        <v>0.008984865620732307</v>
+        <v>0.01062673516571522</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01157950423657894</v>
+        <v>0.008222387172281742</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01274736970663071</v>
+        <v>0.008619486354291439</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01235841121524572</v>
+        <v>0.01118641439825296</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01130689680576324</v>
+        <v>0.01106311939656734</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0109596885740757</v>
+        <v>0.008042237721383572</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01094083487987518</v>
+        <v>0.01016869116574526</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.008383630774915218</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01060468517243862</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.008213890716433525</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.009467257186770439</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.009208816103637218</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.009906664490699768</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.01106872595846653</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.008258022367954254</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.008536630310118198</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.009356888942420483</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_AA composition of CYT2 of single-spanning proteins (Nakashima-Nishikawa,</t>
+          <t>diff_aaindex1_Average relative fractional occurrence in EL(i) (Rackovsky-Scheraga, 1982)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006571226753294468</v>
+        <v>0.009579306468367577</v>
       </c>
       <c r="C48" t="n">
-        <v>0.006421455647796392</v>
+        <v>0.009190061129629612</v>
       </c>
       <c r="D48" t="n">
-        <v>0.005715759005397558</v>
+        <v>0.009582969360053539</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006447882391512394</v>
+        <v>0.008707775734364986</v>
       </c>
       <c r="F48" t="n">
-        <v>0.006612316239625216</v>
+        <v>0.008105344139039516</v>
       </c>
       <c r="G48" t="n">
-        <v>0.006441909354180098</v>
+        <v>0.009054138325154781</v>
       </c>
       <c r="H48" t="n">
-        <v>0.005729819647967815</v>
+        <v>0.008805829100310802</v>
       </c>
       <c r="I48" t="n">
-        <v>0.005319369491189718</v>
+        <v>0.008507680147886276</v>
       </c>
       <c r="J48" t="n">
-        <v>0.009181864559650421</v>
+        <v>0.008561825379729271</v>
       </c>
       <c r="K48" t="n">
-        <v>0.006416435819119215</v>
+        <v>0.008712707087397575</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0064858035184443</v>
+        <v>0.007545351982116699</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.008631829172372818</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.007164556533098221</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.007902798242866993</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.008017919957637787</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.00952913798391819</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.007876493036746979</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.006955844815820456</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.008765785023570061</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.006849246565252542</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.008402330800890923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Normalized frequency of beta-sheet from LG (Palau et al., 1981)</t>
+          <t>diff_aaindex1_Average relative fractional occurrence in E0(i) (Rackovsky-Scheraga, 1982)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.004884689580649137</v>
+        <v>0.01190654840320349</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005100540351122618</v>
+        <v>0.01026872545480728</v>
       </c>
       <c r="D49" t="n">
-        <v>0.004839195404201746</v>
+        <v>0.01085106004029512</v>
       </c>
       <c r="E49" t="n">
-        <v>0.005972589366137981</v>
+        <v>0.01001007575541735</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003735470119863749</v>
+        <v>0.01106318272650242</v>
       </c>
       <c r="G49" t="n">
-        <v>0.006215952336788177</v>
+        <v>0.01384392380714417</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004556381143629551</v>
+        <v>0.01010111998766661</v>
       </c>
       <c r="I49" t="n">
-        <v>0.004807301796972752</v>
+        <v>0.01150795351713896</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005736947525292635</v>
+        <v>0.01027476694434881</v>
       </c>
       <c r="K49" t="n">
-        <v>0.005816899705678225</v>
+        <v>0.008333572186529636</v>
       </c>
       <c r="L49" t="n">
-        <v>0.005166596733033657</v>
+        <v>0.01025580335408449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01120859477669001</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01096530631184578</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.01157382596284151</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.01266166474670172</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.008839909918606281</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.01058354787528515</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.01259032264351845</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.009282538667321205</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.01131149102002382</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.01087169535458088</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Normalized frequency of turn in all-alpha class (Palau et al., 1981)</t>
+          <t>diff_aaindex1_Transfer free energy from chx to oct (Radzicka-Wolfenden, 1988)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01158785447478294</v>
+        <v>0.009839450940489769</v>
       </c>
       <c r="C50" t="n">
-        <v>0.009466619230806828</v>
+        <v>0.01073229033499956</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01082184817641973</v>
+        <v>0.01254262402653694</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009486514143645763</v>
+        <v>0.01145502086728811</v>
       </c>
       <c r="F50" t="n">
-        <v>0.009514883160591125</v>
+        <v>0.0122185442596674</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01095635630190372</v>
+        <v>0.01319745648652315</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01349710579961538</v>
+        <v>0.01236533559858799</v>
       </c>
       <c r="I50" t="n">
-        <v>0.009036120027303696</v>
+        <v>0.01116866432130337</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01029336266219616</v>
+        <v>0.01126720197498798</v>
       </c>
       <c r="K50" t="n">
-        <v>0.009040175005793571</v>
+        <v>0.01123326830565929</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01037008501589298</v>
+        <v>0.009181095287203789</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01268516201525927</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01009646523743868</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.01135517563670874</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.01177993137389421</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.01016401313245296</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.009375221095979214</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.01079961843788624</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.01050237193703651</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.009175627492368221</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.01105672679841518</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Average number of surrounding residues (Ponnuswamy et al., 1980)</t>
+          <t>diff_aaindex1_Relative preference value at Mid (Richardson-Richardson, 1988)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.009212875738739967</v>
+        <v>0.01150480005890131</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01015098392963409</v>
+        <v>0.01050045434385538</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008087576366961002</v>
+        <v>0.01001721527427435</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009611493907868862</v>
+        <v>0.00849201250821352</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01030879188328981</v>
+        <v>0.01110071782022715</v>
       </c>
       <c r="G51" t="n">
-        <v>0.008477304130792618</v>
+        <v>0.01062579732388258</v>
       </c>
       <c r="H51" t="n">
-        <v>0.008434929884970188</v>
+        <v>0.007315963972359896</v>
       </c>
       <c r="I51" t="n">
-        <v>0.009295821189880371</v>
+        <v>0.008438047952950001</v>
       </c>
       <c r="J51" t="n">
-        <v>0.006635042373090982</v>
+        <v>0.01029282156378031</v>
       </c>
       <c r="K51" t="n">
-        <v>0.009460498578846455</v>
+        <v>0.006817520596086979</v>
       </c>
       <c r="L51" t="n">
-        <v>0.008967531844973564</v>
+        <v>0.006901109591126442</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.007056117057800293</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.005628618411719799</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.007084839511662722</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.006827568169683218</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.006352045107632875</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.006280009169131517</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.006931406911462545</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.00717386556789279</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.007184575311839581</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.008126275613903999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Weights for beta-sheet at the window position of 1 (Qian-Sejnowski, 1988)</t>
+          <t>diff_aaindex1_Information measure for pleated-sheet (Robson-Suzuki, 1976)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02995440736413002</v>
+        <v>0.03417201712727547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02432484552264214</v>
+        <v>0.02908829972147942</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03462634608149529</v>
+        <v>0.0263566467911005</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01690862514078617</v>
+        <v>0.0230733547359705</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02257035486400127</v>
+        <v>0.03632661700248718</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02012613043189049</v>
+        <v>0.03301306813955307</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0257321260869503</v>
+        <v>0.02703250385820866</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01827711053192616</v>
+        <v>0.02615410275757313</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0443696565926075</v>
+        <v>0.02173404954373837</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02416561543941498</v>
+        <v>0.03151673823595047</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02610552310943604</v>
+        <v>0.04790133237838745</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0315062589943409</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.04863961040973663</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.04135242477059364</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.03977856785058975</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.04472092539072037</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.03091536089777946</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.04213287308812141</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.04100055992603302</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.03639771416783333</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.03464064747095108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Weights for coil at the window position of -6 (Qian-Sejnowski, 1988)</t>
+          <t>diff_aaindex1_Mean area buried on transfer (Rose et al., 1985)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.009935061447322369</v>
+        <v>0.009211565367877483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.007775414735078812</v>
+        <v>0.01084576733410358</v>
       </c>
       <c r="D53" t="n">
-        <v>0.007817193865776062</v>
+        <v>0.008718224242329597</v>
       </c>
       <c r="E53" t="n">
-        <v>0.009160866960883141</v>
+        <v>0.008157752454280853</v>
       </c>
       <c r="F53" t="n">
-        <v>0.008548308163881302</v>
+        <v>0.009785573929548264</v>
       </c>
       <c r="G53" t="n">
-        <v>0.009100205264985561</v>
+        <v>0.0111507186666131</v>
       </c>
       <c r="H53" t="n">
-        <v>0.006969651207327843</v>
+        <v>0.009237620979547501</v>
       </c>
       <c r="I53" t="n">
-        <v>0.008951878175139427</v>
+        <v>0.0117576839402318</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01049485709518194</v>
+        <v>0.007620837073773146</v>
       </c>
       <c r="K53" t="n">
-        <v>0.007643972989171743</v>
+        <v>0.02934032119810581</v>
       </c>
       <c r="L53" t="n">
-        <v>0.008639741688966751</v>
+        <v>0.009680246002972126</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01206914056092501</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0122672850266099</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.01562620140612125</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.0122221577912569</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0136188929900527</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.01539095025509596</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.01095383893698454</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.01070815045386553</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.01283630542457104</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.01205996237695217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Average relative fractional occurrence in E0(i-1) (Rackovsky-Scheraga, 1982)</t>
+          <t>diff_aaindex1_Relative population of conformational state E (Vasquez et al., 1983)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.008391136303544044</v>
+        <v>0.01539584994316101</v>
       </c>
       <c r="C54" t="n">
-        <v>0.007500937674194574</v>
+        <v>0.01591595262289047</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01047969609498978</v>
+        <v>0.01317859720438719</v>
       </c>
       <c r="E54" t="n">
-        <v>0.009658375754952431</v>
+        <v>0.01430055592209101</v>
       </c>
       <c r="F54" t="n">
-        <v>0.007286124397069216</v>
+        <v>0.01603996381163597</v>
       </c>
       <c r="G54" t="n">
-        <v>0.008739708922803402</v>
+        <v>0.01284274086356163</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01016185339540243</v>
+        <v>0.01480303518474102</v>
       </c>
       <c r="I54" t="n">
-        <v>0.006070614792406559</v>
+        <v>0.01414052397012711</v>
       </c>
       <c r="J54" t="n">
-        <v>0.007548426743596792</v>
+        <v>0.01273106317967176</v>
       </c>
       <c r="K54" t="n">
-        <v>0.007347287144511938</v>
+        <v>0.01371492445468903</v>
       </c>
       <c r="L54" t="n">
-        <v>0.008318415842950344</v>
+        <v>0.01094293873757124</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01332449540495872</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01117562688887119</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01357419136911631</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.0134939793497324</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.01156103145331144</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.01275261957198381</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.01413539797067642</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.01231487561017275</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.01021509524434805</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.01332767587155104</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Transfer free energy from oct to wat (Radzicka-Wolfenden, 1988)</t>
+          <t>diff_aaindex1_Hydration potential (Wolfenden et al., 1981)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.007152277044951916</v>
+        <v>0.01236281264573336</v>
       </c>
       <c r="C55" t="n">
-        <v>0.007626723032444715</v>
+        <v>0.01100990176200867</v>
       </c>
       <c r="D55" t="n">
-        <v>0.008553400635719299</v>
+        <v>0.01056409254670143</v>
       </c>
       <c r="E55" t="n">
-        <v>0.008242874406278133</v>
+        <v>0.01274274010211229</v>
       </c>
       <c r="F55" t="n">
-        <v>0.007238817866891623</v>
+        <v>0.01132095325738192</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01109668798744678</v>
+        <v>0.01117095910012722</v>
       </c>
       <c r="H55" t="n">
-        <v>0.009194253943860531</v>
+        <v>0.01123256795108318</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01117269415408373</v>
+        <v>0.0119507759809494</v>
       </c>
       <c r="J55" t="n">
-        <v>0.00795480702072382</v>
+        <v>0.009447811171412468</v>
       </c>
       <c r="K55" t="n">
-        <v>0.007648155093193054</v>
+        <v>0.009206765331327915</v>
       </c>
       <c r="L55" t="n">
-        <v>0.008588069118559361</v>
+        <v>0.009087082929909229</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.009311702102422714</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0111644733697176</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.010263342410326</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.01063432823866606</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.01103116478770971</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.01108194049447775</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.0107388673350215</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.01150277070701122</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.008473202586174011</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.01071491278707981</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Transfer free energy from chx to oct (Radzicka-Wolfenden, 1988)</t>
+          <t>diff_aaindex1_Unfolding Gibbs energy in water, pH9.0 (Yutani et al., 1987)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01007160171866417</v>
+        <v>0.01062427181750536</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01204598136246204</v>
+        <v>0.01091367565095425</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01115174777805805</v>
+        <v>0.01143179275095463</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01008029468357563</v>
+        <v>0.009904318489134312</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0126759372651577</v>
+        <v>0.009944767691195011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0106634758412838</v>
+        <v>0.01091856136918068</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01222729682922363</v>
+        <v>0.008332032710313797</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01009834930300713</v>
+        <v>0.009929311461746693</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01279888022691011</v>
+        <v>0.008481421507894993</v>
       </c>
       <c r="K56" t="n">
-        <v>0.007202269043773413</v>
+        <v>0.01074440125375986</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01090158335864544</v>
+        <v>0.009391791187226772</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01130249258130789</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.008171555586159229</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.009249482303857803</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.009355304762721062</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.008957481943070889</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0110583733767271</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.01099430024623871</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.01074345037341118</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.010183728300035</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.01003162562847137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Information measure for pleated-sheet (Robson-Suzuki, 1976)</t>
+          <t>diff_aaindex1_Normalized positional residue frequency at helix termini N"' (Aurora-Rose,</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.04438510164618492</v>
+        <v>0.01097227539867163</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07925053685903549</v>
+        <v>0.01064572297036648</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05820433422923088</v>
+        <v>0.008833750151097775</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03711588680744171</v>
+        <v>0.01052286848425865</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07267329841852188</v>
+        <v>0.009224150329828262</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05155778676271439</v>
+        <v>0.008916637860238552</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05924170836806297</v>
+        <v>0.01036525517702103</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05586380138993263</v>
+        <v>0.0114594828337431</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03081829287111759</v>
+        <v>0.01119945105165243</v>
       </c>
       <c r="K57" t="n">
-        <v>0.06455229222774506</v>
+        <v>0.01153528410941362</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05536630004644394</v>
+        <v>0.01059236004948616</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01213755644857883</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01265921629965305</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.01013929396867752</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.009723427705466747</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.01162944920361042</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.01185071654617786</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.0108712324872613</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.01395206805318594</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.01083176210522652</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.01090309862047434</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Mean area buried on transfer (Rose et al., 1985)</t>
+          <t>diff_aaindex1_Normalized flexibility parameters (B-values), average (Vihinen et al., 1994)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01565080694854259</v>
+        <v>0.02491812966763973</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01105068996548653</v>
+        <v>0.01915089786052704</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01341812964528799</v>
+        <v>0.02117286622524261</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02086869440972805</v>
+        <v>0.02710741013288498</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01645709574222565</v>
+        <v>0.01787188276648521</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01670102961361408</v>
+        <v>0.01669256389141083</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01210399717092514</v>
+        <v>0.01565340347588062</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01946281455457211</v>
+        <v>0.01793321035802364</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00909548532217741</v>
+        <v>0.02799736708402634</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01924589835107327</v>
+        <v>0.01344056334346533</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01540546398609877</v>
+        <v>0.01563642732799053</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01406938023865223</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01119957026094198</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.01427521649748087</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01934688910841942</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.01899919100105762</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.01789365708827972</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.02177755162119865</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.01753334142267704</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.01945195905864239</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.01860607042908669</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Relative population of conformational state E (Vasquez et al., 1983)</t>
+          <t>diff_aaindex1_Free energy in beta-strand conformation (Munoz-Serrano, 1994)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.00956250261515379</v>
+        <v>0.01833661459386349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0105700995773077</v>
+        <v>0.01532948110252619</v>
       </c>
       <c r="D59" t="n">
-        <v>0.009054834954440594</v>
+        <v>0.02573944441974163</v>
       </c>
       <c r="E59" t="n">
-        <v>0.008869817480444908</v>
+        <v>0.02081134915351868</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01006461959332228</v>
+        <v>0.0161136407405138</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01015356089919806</v>
+        <v>0.01946878060698509</v>
       </c>
       <c r="H59" t="n">
-        <v>0.009632406756281853</v>
+        <v>0.02517211996018887</v>
       </c>
       <c r="I59" t="n">
-        <v>0.009127162396907806</v>
+        <v>0.02990861982107162</v>
       </c>
       <c r="J59" t="n">
-        <v>0.009327899664640427</v>
+        <v>0.01965578831732273</v>
       </c>
       <c r="K59" t="n">
-        <v>0.009765638038516045</v>
+        <v>0.02554531022906303</v>
       </c>
       <c r="L59" t="n">
-        <v>0.009612853638827801</v>
+        <v>0.02523802220821381</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0176683571189642</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.02405515126883984</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.01549066416919231</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.02534521743655205</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.0264770146459341</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.03466843813657761</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.02966992184519768</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.01758417300879955</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.03160539269447327</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.02319417521357536</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Normalized positional residue frequency at helix termini N"' (Aurora-Rose,</t>
+          <t>diff_aaindex1_Thermodynamic beta sheet propensity (Kim-Berg, 1993)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.009301976300776005</v>
+        <v>0.01738009415566921</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007875540293753147</v>
+        <v>0.01757882162928581</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008538351394236088</v>
+        <v>0.01814683713018894</v>
       </c>
       <c r="E60" t="n">
-        <v>0.009202912449836731</v>
+        <v>0.02401911281049252</v>
       </c>
       <c r="F60" t="n">
-        <v>0.007627599872648716</v>
+        <v>0.01215598359704018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.009221501648426056</v>
+        <v>0.01770886778831482</v>
       </c>
       <c r="H60" t="n">
-        <v>0.007677946705371141</v>
+        <v>0.01548912655562162</v>
       </c>
       <c r="I60" t="n">
-        <v>0.008959437720477581</v>
+        <v>0.01503502391278744</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01231067441403866</v>
+        <v>0.01733354292809963</v>
       </c>
       <c r="K60" t="n">
-        <v>0.009511508047580719</v>
+        <v>0.02408858388662338</v>
       </c>
       <c r="L60" t="n">
-        <v>0.009022744372487068</v>
+        <v>0.01738671958446503</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.03289894759654999</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01608063094317913</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.02412911877036095</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.02409504354000092</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.01901610195636749</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.02244839444756508</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.01302482094615698</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.02336927875876427</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.01259082648903131</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.01919879019260406</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Free energy in beta-strand conformation (Munoz-Serrano, 1994)</t>
+          <t>diff_aaindex1_p-Values of mesophilic proteins based on the distributions of B values</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01898976601660252</v>
+        <v>0.0266018882393837</v>
       </c>
       <c r="C61" t="n">
-        <v>0.009543108753859997</v>
+        <v>0.03405220806598663</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02323698997497559</v>
+        <v>0.02797135338187218</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0227920301258564</v>
+        <v>0.02786658518016338</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01306735910475254</v>
+        <v>0.02845196798443794</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01498196739703417</v>
+        <v>0.03260362520813942</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02204303815960884</v>
+        <v>0.03158197179436684</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0210245531052351</v>
+        <v>0.02391735278069973</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01098199002444744</v>
+        <v>0.02876407466828823</v>
       </c>
       <c r="K61" t="n">
-        <v>0.03223222494125366</v>
+        <v>0.03491212427616119</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01888930425047874</v>
+        <v>0.0319075882434845</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.04654697701334953</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.03249155357480049</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.0366680696606636</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.03418268263339996</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.03296443447470665</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0266665443778038</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.03681109473109245</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.03466058894991875</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.03257784247398376</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.03211002424359322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Free energy in beta-strand region (Munoz-Serrano, 1994)</t>
+          <t>diff_aaindex1_Distribution of amino acid residues in the alpha-helices in thermophilic</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00823270995169878</v>
+        <v>0.009691151790320873</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01293096505105495</v>
+        <v>0.009360732510685921</v>
       </c>
       <c r="D62" t="n">
-        <v>0.009597714059054852</v>
+        <v>0.0105511425063014</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01356327347457409</v>
+        <v>0.007104604970663786</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01419502217322588</v>
+        <v>0.009070749394595623</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01435963343828917</v>
+        <v>0.008332081139087677</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01216504350304604</v>
+        <v>0.008497658185660839</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01002507284283638</v>
+        <v>0.009739830158650875</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01374705228954554</v>
+        <v>0.00821295753121376</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01161189284175634</v>
+        <v>0.008518144488334656</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01204283814877272</v>
+        <v>0.008207452483475208</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.006024667993187904</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.008013532496988773</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.007855752483010292</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.008052254095673561</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.008750599808990955</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.006964906584471464</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.008201265707612038</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.006980911828577518</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.005659020971506834</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.008189471438527107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_p-Values of mesophilic proteins based on the distributions of B values</t>
+          <t>diff_aaindex1_Hydropathy scale based on self-information values in the two-state model (25%</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02111484110355377</v>
+        <v>0.009764104150235653</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02543036639690399</v>
+        <v>0.01069920510053635</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03112450242042542</v>
+        <v>0.006982000544667244</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03145884722471237</v>
+        <v>0.008435208350419998</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03628798201680183</v>
+        <v>0.01335240248590708</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03505319356918335</v>
+        <v>0.008031281642615795</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0302998311817646</v>
+        <v>0.01451879739761353</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02505699172616005</v>
+        <v>0.009655648842453957</v>
       </c>
       <c r="J63" t="n">
-        <v>0.03745095059275627</v>
+        <v>0.01059659663587809</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0305339228361845</v>
+        <v>0.008174465969204903</v>
       </c>
       <c r="L63" t="n">
-        <v>0.03038113936781883</v>
+        <v>0.0100547457113862</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.01155784353613853</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.01341270748525858</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.00965359341353178</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.01042291522026062</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.009235120378434658</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0110962949693203</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.010585842654109</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.009929424151778221</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.01274654641747475</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.010445237159729</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Hydropathy scale based on self-information values in the two-state model (36%</t>
+          <t>WT_PSSM_Score</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01005934365093708</v>
+        <v>0.02735620178282261</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01057668495923281</v>
+        <v>0.02842780761420727</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006266938522458076</v>
+        <v>0.03065871819853783</v>
       </c>
       <c r="E64" t="n">
-        <v>0.006315983366221189</v>
+        <v>0.02608763054013252</v>
       </c>
       <c r="F64" t="n">
-        <v>0.007772653829306364</v>
+        <v>0.02929665520787239</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0104334494099021</v>
+        <v>0.0292491689324379</v>
       </c>
       <c r="H64" t="n">
-        <v>0.008760794997215271</v>
+        <v>0.02842488326132298</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01190861873328686</v>
+        <v>0.02879995666444302</v>
       </c>
       <c r="J64" t="n">
-        <v>0.009560510516166687</v>
+        <v>0.03035516850650311</v>
       </c>
       <c r="K64" t="n">
-        <v>0.007447232957929373</v>
+        <v>0.03082805685698986</v>
       </c>
       <c r="L64" t="n">
-        <v>0.008910221979022026</v>
+        <v>0.02853397279977798</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.02684059552848339</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.03003641217947006</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.02810695953667164</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.0290143359452486</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.0300733707845211</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.0276640560477972</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.02844931557774544</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.03121422976255417</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.02884077839553356</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.02891291305422783</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Surface composition of amino acids in intracellular proteins of thermophiles</t>
+          <t>MUT_PSSM_Score</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.009169150143861771</v>
+        <v>0.01666363701224327</v>
       </c>
       <c r="C65" t="n">
-        <v>0.007612952031195164</v>
+        <v>0.01609553024172783</v>
       </c>
       <c r="D65" t="n">
-        <v>0.009185865521430969</v>
+        <v>0.01644537039101124</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01039030868560076</v>
+        <v>0.01546022947877645</v>
       </c>
       <c r="F65" t="n">
-        <v>0.008141676895320415</v>
+        <v>0.01714330539107323</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01054925564676523</v>
+        <v>0.01616243831813335</v>
       </c>
       <c r="H65" t="n">
-        <v>0.007587122265249491</v>
+        <v>0.0161118321120739</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01008015032857656</v>
+        <v>0.01583745330572128</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01333098858594894</v>
+        <v>0.01457933429628611</v>
       </c>
       <c r="K65" t="n">
-        <v>0.007249460555613041</v>
+        <v>0.01474580354988575</v>
       </c>
       <c r="L65" t="n">
-        <v>0.009329693391919136</v>
+        <v>0.01323396060615778</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01169352512806654</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01358049642294645</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.01351171918213367</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.01172884926199913</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.01244906522333622</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.01287032198160887</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0127851776778698</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.01419330947101116</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.01322846487164497</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.01442599110305309</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Entire chain composition of amino acids in intracellular proteins of</t>
+          <t>WT_PSSM_Score_Aver</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.009115059860050678</v>
+        <v>0.00833864975720644</v>
       </c>
       <c r="C66" t="n">
-        <v>0.007040718104690313</v>
+        <v>0.008717295713722706</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007380102295428514</v>
+        <v>0.009213877841830254</v>
       </c>
       <c r="E66" t="n">
-        <v>0.007484098430722952</v>
+        <v>0.0092470683157444</v>
       </c>
       <c r="F66" t="n">
-        <v>0.007337113376706839</v>
+        <v>0.008837484754621983</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00633546244353056</v>
+        <v>0.008508026599884033</v>
       </c>
       <c r="H66" t="n">
-        <v>0.008584054186940193</v>
+        <v>0.009078741073608398</v>
       </c>
       <c r="I66" t="n">
-        <v>0.007572923321276903</v>
+        <v>0.008383649401366711</v>
       </c>
       <c r="J66" t="n">
-        <v>0.006993912626057863</v>
+        <v>0.007831099443137646</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00780381029471755</v>
+        <v>0.008995781652629375</v>
       </c>
       <c r="L66" t="n">
-        <v>0.007564725819975138</v>
+        <v>0.009901258163154125</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.008361765183508396</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.009572433307766914</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.008751386776566505</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.009372233413159847</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.008541213348507881</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.008768499828875065</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.008499854244291782</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.007711485493928194</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.008474932983517647</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.008755335584282875</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Side-chain conformation by gaussian evolutionary method (Yang et al., 2002)</t>
+          <t>MUT_PSSM_Score_B5</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01112137176096439</v>
+        <v>0.007654658984392881</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01160108111798763</v>
+        <v>0.008025913499295712</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01065066084265709</v>
+        <v>0.00803567748516798</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01074636541306973</v>
+        <v>0.007688770070672035</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0140801789239049</v>
+        <v>0.006837608758360147</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01575222425162792</v>
+        <v>0.007814711891114712</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01402241177856922</v>
+        <v>0.008222521282732487</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01069742348045111</v>
+        <v>0.00728196743875742</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01328632049262524</v>
+        <v>0.007828835397958755</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01621811091899872</v>
+        <v>0.007564194966107607</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01281761564314365</v>
+        <v>0.008432749658823013</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.007272952701896429</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.008286742493510246</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.007889456115663052</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.008385789580643177</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.007235818542540073</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.008082704618573189</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.007519163191318512</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.007125018164515495</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.00746519910171628</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.007732523139566183</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Linker propensity from small dataset (linker length is less than six</t>
+          <t>MUT_PSSM_Score_Aver</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.00755778606981039</v>
+        <v>0.008875726722180843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006059633567929268</v>
+        <v>0.008104053325951099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.008587153628468513</v>
+        <v>0.007199462037533522</v>
       </c>
       <c r="E68" t="n">
-        <v>0.007737955078482628</v>
+        <v>0.008146148175001144</v>
       </c>
       <c r="F68" t="n">
-        <v>0.006681599654257298</v>
+        <v>0.00910402275621891</v>
       </c>
       <c r="G68" t="n">
-        <v>0.008480405434966087</v>
+        <v>0.009437563829123974</v>
       </c>
       <c r="H68" t="n">
-        <v>0.006009227596223354</v>
+        <v>0.008632149547338486</v>
       </c>
       <c r="I68" t="n">
-        <v>0.007044520229101181</v>
+        <v>0.009913017973303795</v>
       </c>
       <c r="J68" t="n">
-        <v>0.009367693215608597</v>
+        <v>0.009159952402114868</v>
       </c>
       <c r="K68" t="n">
-        <v>0.008299048058688641</v>
+        <v>0.007584081962704659</v>
       </c>
       <c r="L68" t="n">
-        <v>0.007582501973956823</v>
+        <v>0.008621078915894032</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.007912775501608849</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.008868003264069557</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.007692593149840832</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.008936533704400063</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.008469984866678715</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.008683339692652225</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.008514958433806896</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.009051402099430561</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.009364673867821693</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.008613576181232929</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Buriability (Zhou-Zhou, 2004)</t>
+          <t>Diff_PSSM_Score</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01199958939105272</v>
+        <v>0.05078371986746788</v>
       </c>
       <c r="C69" t="n">
-        <v>0.009177586995065212</v>
+        <v>0.04459762945771217</v>
       </c>
       <c r="D69" t="n">
-        <v>0.009078611619770527</v>
+        <v>0.0484103187918663</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008517800830304623</v>
+        <v>0.05234242230653763</v>
       </c>
       <c r="F69" t="n">
-        <v>0.009521143510937691</v>
+        <v>0.0502748154103756</v>
       </c>
       <c r="G69" t="n">
-        <v>0.009594045579433441</v>
+        <v>0.04604190215468407</v>
       </c>
       <c r="H69" t="n">
-        <v>0.01394709944725037</v>
+        <v>0.04916815087199211</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01237178687006235</v>
+        <v>0.04728829860687256</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01325236633419991</v>
+        <v>0.05273402109742165</v>
       </c>
       <c r="K69" t="n">
-        <v>0.01253481674939394</v>
+        <v>0.05111483857035637</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01099948491901159</v>
+        <v>0.05614249408245087</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0500405915081501</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.05136357620358467</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.04888814687728882</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.05614808574318886</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.05095592886209488</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.05476180464029312</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.0515182763338089</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.0505593866109848</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.05506161227822304</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.05090980604290962</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>diff_aaindex1_Apparent partition energies calculated from Wertz-Scheraga index (Guy, 1985)</t>
+          <t>Diff_PSSM_Score_Aver</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01054564118385315</v>
+        <v>0.04982495680451393</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009898342192173004</v>
+        <v>0.04725911840796471</v>
       </c>
       <c r="D70" t="n">
-        <v>0.007674486376345158</v>
+        <v>0.04932582005858421</v>
       </c>
       <c r="E70" t="n">
-        <v>0.009828359819948673</v>
+        <v>0.04793465882539749</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01068606972694397</v>
+        <v>0.04693681746721268</v>
       </c>
       <c r="G70" t="n">
-        <v>0.007955644279718399</v>
+        <v>0.04598641023039818</v>
       </c>
       <c r="H70" t="n">
-        <v>0.008818723261356354</v>
+        <v>0.04648303985595703</v>
       </c>
       <c r="I70" t="n">
-        <v>0.009443605318665504</v>
+        <v>0.05035342648625374</v>
       </c>
       <c r="J70" t="n">
-        <v>0.007334750611335039</v>
+        <v>0.04950231686234474</v>
       </c>
       <c r="K70" t="n">
-        <v>0.008088747970759869</v>
+        <v>0.04479638859629631</v>
       </c>
       <c r="L70" t="n">
-        <v>0.009027436375617981</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>WT_PSSM_Score</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.01143571548163891</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.01127009745687246</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.01018607430160046</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.01018640771508217</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.01134580560028553</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.01237543858587742</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.01215913146734238</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.01066474430263042</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.01392580755054951</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.01490398310124874</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.01184532046318054</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>MUT_PSSM_Score</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.01132652442902327</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.008869310840964317</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.01177014969289303</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.01136553380638361</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.009147357195615768</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.01003952603787184</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.009880362078547478</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.01278602425009012</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.01025618240237236</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.01010132301598787</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.01055422984063625</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>WT_PSSM_Score_Aver</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.008187726140022278</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.007925804704427719</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.007337899878621101</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.007557903882116079</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.006840922404080629</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.008466990664601326</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.00696204649284482</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.007918671704828739</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.00762912118807435</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.00844922661781311</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.007727631367743015</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>MUT_PSSM_Score_Aver</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.007938820868730545</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.008140983060002327</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.007719805464148521</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.008166281506419182</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.00884503498673439</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.009189866483211517</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.008507253602147102</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.008126328699290752</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.007353019434958696</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.007448073476552963</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.008143546991050243</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Diff_PSSM_Score</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.06381993740797043</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0622505210340023</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.06505931913852692</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.06711688637733459</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.07098818570375443</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.07208307087421417</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.06885889172554016</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.06010765582323074</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.07540930807590485</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.06006861850619316</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.06657623499631882</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Diff_PSSM_Score_Aver</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.01652500219643116</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.01291889604181051</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.01085199229419231</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.01458048075437546</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.01148458383977413</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.01294206734746695</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.01275879144668579</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.01291710790246725</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.01003262121230364</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.01598283089697361</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.0130994375795126</v>
+        <v>0.0473894327878952</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0446523018181324</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.04347329959273338</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.04383372142910957</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.04646100848913193</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.04674537852406502</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.04368175566196442</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.04317376390099525</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.04696989431977272</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.04831606894731522</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.04665497690439224</v>
       </c>
     </row>
   </sheetData>
